--- a/excel/配置-config.xlsx
+++ b/excel/配置-config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A1B24E-0B94-4601-9040-EEA09E6F7B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988A080-511F-4141-B875-62881AD45C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1815" windowWidth="35850" windowHeight="18030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27045" yWindow="2145" windowWidth="35850" windowHeight="18030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置-info" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +481,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,20 +554,42 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
